--- a/模板/labor.xlsx
+++ b/模板/labor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717ACC6A-103B-4E2F-990A-A246FF3B684C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D33C2-0059-4223-BF7C-B7FFBEB6E08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2910" windowWidth="20030" windowHeight="10060" xr2:uid="{0030689C-D5DA-44BC-9EC0-1093283082DF}"/>
+    <workbookView xWindow="8960" yWindow="1610" windowWidth="13430" windowHeight="10060" xr2:uid="{0030689C-D5DA-44BC-9EC0-1093283082DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SuperiorsID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +200,22 @@
   </si>
   <si>
     <t>123123123123123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbadrecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6406C1-899C-413A-877B-CB40A0B1BC68}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,7 +622,7 @@
     <col min="9" max="9" width="21.4140625" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.6640625" style="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -687,10 +695,10 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
@@ -706,21 +714,21 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>43321</v>
@@ -729,19 +737,19 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3">
         <v>12312312312</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -751,60 +759,54 @@
         <v>1234</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2">
+        <v>3000</v>
+      </c>
+      <c r="AB2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="1">
-        <v>39669</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>43321</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
       <c r="AC2">
-        <v>3000</v>
+        <v>123455</v>
       </c>
       <c r="AD2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2">
-        <v>123455</v>
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6"/>
       <c r="H3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{4F0CD642-16E7-48B7-A086-A00355834DDA}">
-      <formula1>25569</formula1>
-      <formula2>2958465</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576 M1:M1048576 D1:D1048576" xr:uid="{0D7B7599-121F-4A15-BC8B-13B12A27BFC2}">
+  <dataValidations count="3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 D1:D1048576" xr:uid="{0D7B7599-121F-4A15-BC8B-13B12A27BFC2}">
       <formula1>25569</formula1>
       <formula2>2958465</formula2>
     </dataValidation>

--- a/模板/labor.xlsx
+++ b/模板/labor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D33C2-0059-4223-BF7C-B7FFBEB6E08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1905310-4B20-4232-9F3A-EF6BF3B86F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="1610" windowWidth="13430" windowHeight="10060" xr2:uid="{0030689C-D5DA-44BC-9EC0-1093283082DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{0030689C-D5DA-44BC-9EC0-1093283082DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123123123123123123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Train</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +212,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123123123123123134</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +611,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -714,10 +714,10 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" t="s">
         <v>43</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3">
         <v>12312312312</v>
@@ -792,10 +792,10 @@
         <v>123455</v>
       </c>
       <c r="AD2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" t="s">
         <v>45</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">

--- a/模板/labor.xlsx
+++ b/模板/labor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1905310-4B20-4232-9F3A-EF6BF3B86F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8053F0-8500-4A6F-99A3-B0660CEAC20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{0030689C-D5DA-44BC-9EC0-1093283082DF}"/>
   </bookViews>
@@ -211,11 +211,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123123123123123134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6406C1-899C-413A-877B-CB40A0B1BC68}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3">
         <v>12312312312</v>
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="AE2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
